--- a/data/trans_orig/IMC_R2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R2-Dificultad-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que, sufre obesidad en 2007 (tasa de respuesta: 98,86%)</t>
+          <t>Población según si tienen obesidad en 2007 (tasa de respuesta: 98,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1879,7 +1879,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que, sufre obesidad en 2012 (tasa de respuesta: 96,9%)</t>
+          <t>Población según si tienen obesidad en 2012 (tasa de respuesta: 96,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3204,7 +3204,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que, sufre obesidad en 2016 (tasa de respuesta: 95,54%)</t>
+          <t>Población según si tienen obesidad en 2016 (tasa de respuesta: 95,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4529,7 +4529,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que, sufre obesidad en 2023 (tasa de respuesta: 96,36%)</t>
+          <t>Población según si tienen obesidad en 2023 (tasa de respuesta: 96,36%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/IMC_R2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R2-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>84243</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>67984</v>
+        <v>69097</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>100482</v>
+        <v>102736</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1471878253016694</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1187810478984143</v>
+        <v>0.1207253905615542</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1755601005782348</v>
+        <v>0.1794986014878778</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>183</v>
@@ -765,19 +765,19 @@
         <v>185497</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>161632</v>
+        <v>164496</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>210780</v>
+        <v>212682</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2052140414937429</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1788126091288136</v>
+        <v>0.1819810114307565</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.23318373477254</v>
+        <v>0.235287835019928</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>268</v>
@@ -786,19 +786,19 @@
         <v>269740</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>240456</v>
+        <v>239446</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>299703</v>
+        <v>296149</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1827173014912687</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1628808220996392</v>
+        <v>0.1621962383260842</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2030132843343998</v>
+        <v>0.2006059344133101</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>488107</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>471868</v>
+        <v>469614</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>504366</v>
+        <v>503253</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8528121746983306</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8244398994217651</v>
+        <v>0.8205013985121222</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8812189521015857</v>
+        <v>0.8792746094384458</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>685</v>
@@ -836,19 +836,19 @@
         <v>718424</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>693141</v>
+        <v>691239</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>742289</v>
+        <v>739425</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7947859585062571</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7668162652274599</v>
+        <v>0.7647121649800719</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8211873908711863</v>
+        <v>0.8180189885692433</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1162</v>
@@ -857,19 +857,19 @@
         <v>1206531</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1176568</v>
+        <v>1180122</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1235815</v>
+        <v>1236825</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8172826985087313</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7969867156656002</v>
+        <v>0.7993940655866898</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8371191779003606</v>
+        <v>0.837803761673916</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>133607</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>111307</v>
+        <v>111658</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>157012</v>
+        <v>155980</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1249910252070672</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1041286441642361</v>
+        <v>0.104456991933735</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1468864555557782</v>
+        <v>0.1459207935786727</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>150</v>
@@ -982,19 +982,19 @@
         <v>158545</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>134865</v>
+        <v>136360</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>183747</v>
+        <v>182528</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1519693402626645</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1292713425283475</v>
+        <v>0.1307045837330764</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1761255626278729</v>
+        <v>0.17495739416489</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>275</v>
@@ -1003,19 +1003,19 @@
         <v>292152</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>263345</v>
+        <v>263167</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>323909</v>
+        <v>325211</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1383162865226065</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1246775685808287</v>
+        <v>0.1245932053211242</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1533512482266753</v>
+        <v>0.1539675292803538</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>935328</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>911923</v>
+        <v>912955</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>957628</v>
+        <v>957277</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8750089747929328</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8531135444442217</v>
+        <v>0.8540792064213273</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8958713558357637</v>
+        <v>0.8955430080662651</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>866</v>
@@ -1053,19 +1053,19 @@
         <v>884726</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>859524</v>
+        <v>860743</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>908406</v>
+        <v>906911</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8480306597373355</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8238744373721268</v>
+        <v>0.8250426058351099</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8707286574716524</v>
+        <v>0.8692954162669236</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1788</v>
@@ -1074,19 +1074,19 @@
         <v>1820054</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1788297</v>
+        <v>1786995</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1848861</v>
+        <v>1849039</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8616837134773935</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8466487517733248</v>
+        <v>0.8460324707196462</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8753224314191713</v>
+        <v>0.8754067946788757</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>124164</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>105322</v>
+        <v>103532</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>150495</v>
+        <v>146780</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1112412895063059</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09436067535007217</v>
+        <v>0.09275685430574217</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1348324531027391</v>
+        <v>0.1315038064110553</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>109</v>
@@ -1199,19 +1199,19 @@
         <v>111639</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>93499</v>
+        <v>93574</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>131187</v>
+        <v>132293</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1133059612429043</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09489458949036993</v>
+        <v>0.09497158653683813</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1331455805160274</v>
+        <v>0.1342678977630793</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>232</v>
@@ -1220,19 +1220,19 @@
         <v>235803</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>208291</v>
+        <v>207537</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>268156</v>
+        <v>265195</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1122093323733339</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09911755168927434</v>
+        <v>0.09875883631129839</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1276049532419995</v>
+        <v>0.1261962916764044</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>992000</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>965669</v>
+        <v>969384</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1010842</v>
+        <v>1012632</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8887587104936941</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8651675468972609</v>
+        <v>0.8684961935889447</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9056393246499278</v>
+        <v>0.9072431456942576</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>865</v>
@@ -1270,19 +1270,19 @@
         <v>873649</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>854101</v>
+        <v>852995</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>891789</v>
+        <v>891714</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8866940387570957</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8668544194839722</v>
+        <v>0.8657321022369203</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9051054105096299</v>
+        <v>0.9050284134631617</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1839</v>
@@ -1291,19 +1291,19 @@
         <v>1865649</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1833296</v>
+        <v>1836257</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1893161</v>
+        <v>1893915</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.887790667626666</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8723950467580007</v>
+        <v>0.8738037083235957</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9008824483107257</v>
+        <v>0.9012411636887017</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>45734</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>34146</v>
+        <v>34953</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>59138</v>
+        <v>60608</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1035163544031504</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07728810528719614</v>
+        <v>0.07911505207899262</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1338568787088631</v>
+        <v>0.1371840923807561</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -1416,19 +1416,19 @@
         <v>29185</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20842</v>
+        <v>19335</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41772</v>
+        <v>40728</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08678944734976517</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06198134564530106</v>
+        <v>0.05749905001299466</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1242213838843235</v>
+        <v>0.1211172646222251</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>73</v>
@@ -1437,19 +1437,19 @@
         <v>74918</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>59408</v>
+        <v>60668</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>90934</v>
+        <v>92013</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09628725995197192</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07635264356811039</v>
+        <v>0.07797207898848477</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1168716663049672</v>
+        <v>0.1182575823412037</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>396068</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>382664</v>
+        <v>381194</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>407656</v>
+        <v>406849</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8964836455968496</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8661431212911364</v>
+        <v>0.8628159076192436</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9227118947128038</v>
+        <v>0.9208849479210072</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>306</v>
@@ -1487,19 +1487,19 @@
         <v>307085</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>294498</v>
+        <v>295542</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>315428</v>
+        <v>316935</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9132105526502349</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8757786161156764</v>
+        <v>0.8788827353777748</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9380186543546989</v>
+        <v>0.9425009499870053</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>692</v>
@@ -1508,19 +1508,19 @@
         <v>703153</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>687137</v>
+        <v>686058</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>718663</v>
+        <v>717403</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.903712740048028</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8831283336950329</v>
+        <v>0.8817424176587964</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9236473564318897</v>
+        <v>0.9220279210115153</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>387747</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>350422</v>
+        <v>350850</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>426352</v>
+        <v>425885</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1211994565075698</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1095326253523005</v>
+        <v>0.1096662134528408</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.133266204126553</v>
+        <v>0.1331203547837689</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>470</v>
@@ -1633,19 +1633,19 @@
         <v>484866</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>443949</v>
+        <v>446792</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>529206</v>
+        <v>527372</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1483338392421543</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1358161441220633</v>
+        <v>0.1366857952250158</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1618987055219633</v>
+        <v>0.1613374161583672</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>848</v>
@@ -1654,19 +1654,19 @@
         <v>872614</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>817744</v>
+        <v>819263</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>926823</v>
+        <v>925891</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1349124286548984</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1264292015588747</v>
+        <v>0.126664002827029</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1432936636166481</v>
+        <v>0.1431495426664698</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2811504</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2772899</v>
+        <v>2773366</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2848829</v>
+        <v>2848401</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8788005434924302</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8667337958734469</v>
+        <v>0.8668796452162311</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8904673746476995</v>
+        <v>0.8903337865471591</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2722</v>
@@ -1704,19 +1704,19 @@
         <v>2783884</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2739544</v>
+        <v>2741378</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2824801</v>
+        <v>2821958</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8516661607578457</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8381012944780366</v>
+        <v>0.8386625838416327</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8641838558779367</v>
+        <v>0.8633142047749841</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5481</v>
@@ -1725,19 +1725,19 @@
         <v>5595386</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5541177</v>
+        <v>5542109</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5650256</v>
+        <v>5648737</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8650875713451016</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8567063363833519</v>
+        <v>0.8568504573335305</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8735707984411253</v>
+        <v>0.8733359971729712</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>193132</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>168397</v>
+        <v>165487</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>223301</v>
+        <v>221158</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1887882655914147</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1646090032743009</v>
+        <v>0.1617649604566715</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2182777484384051</v>
+        <v>0.2161834313316628</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>257</v>
@@ -2090,19 +2090,19 @@
         <v>275678</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>247611</v>
+        <v>246728</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>306251</v>
+        <v>306675</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2570878850242403</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2309137078001137</v>
+        <v>0.2300901819443053</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2855999346998359</v>
+        <v>0.2859949825097414</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>434</v>
@@ -2111,19 +2111,19 @@
         <v>468810</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>428343</v>
+        <v>430872</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>509255</v>
+        <v>507502</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2237415387304235</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2044287088478055</v>
+        <v>0.2056353429390188</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2430443623747552</v>
+        <v>0.2422076960454407</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>829879</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>799710</v>
+        <v>801853</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>854614</v>
+        <v>857524</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8112117344085853</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7817222515615951</v>
+        <v>0.7838165686683374</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8353909967256993</v>
+        <v>0.8382350395433285</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>728</v>
@@ -2161,19 +2161,19 @@
         <v>796631</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>766058</v>
+        <v>765634</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>824698</v>
+        <v>825581</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7429121149757596</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7144000653001641</v>
+        <v>0.7140050174902587</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.769086292199886</v>
+        <v>0.7699098180556947</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1509</v>
@@ -2182,19 +2182,19 @@
         <v>1626509</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1586064</v>
+        <v>1587817</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1666976</v>
+        <v>1664447</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7762584612695765</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.756955637625245</v>
+        <v>0.7577923039545594</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7955712911521948</v>
+        <v>0.7943646570609815</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>156313</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>133068</v>
+        <v>131775</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>181478</v>
+        <v>179138</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1630113446546602</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1387700061287601</v>
+        <v>0.137422238393851</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1892548510964206</v>
+        <v>0.1868148348340229</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>206</v>
@@ -2307,19 +2307,19 @@
         <v>221907</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>194650</v>
+        <v>195802</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>250626</v>
+        <v>250373</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2137835052923726</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1875246392050489</v>
+        <v>0.1886343836687553</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2414517748554703</v>
+        <v>0.2412078466260786</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>353</v>
@@ -2328,19 +2328,19 @@
         <v>378220</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>342872</v>
+        <v>339596</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>416044</v>
+        <v>415969</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1894028672031062</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1717017781334046</v>
+        <v>0.1700609527164584</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2083439838443865</v>
+        <v>0.2083068336668335</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>802596</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>777431</v>
+        <v>779771</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>825841</v>
+        <v>827134</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8369886553453397</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8107451489035798</v>
+        <v>0.8131851651659771</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8612299938712399</v>
+        <v>0.8625777616061492</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>760</v>
@@ -2378,19 +2378,19 @@
         <v>816091</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>787372</v>
+        <v>787625</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>843348</v>
+        <v>842196</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7862164947076274</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7585482251445296</v>
+        <v>0.7587921533739216</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8124753607949511</v>
+        <v>0.8113656163312449</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1521</v>
@@ -2399,19 +2399,19 @@
         <v>1618687</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1580863</v>
+        <v>1580938</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1654035</v>
+        <v>1657311</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8105971327968938</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7916560161556134</v>
+        <v>0.7916931663331662</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8282982218665953</v>
+        <v>0.8299390472835416</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>138052</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>115121</v>
+        <v>117104</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>159228</v>
+        <v>164091</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1601682723250008</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1335640313841588</v>
+        <v>0.1358644344244112</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1847363351295364</v>
+        <v>0.1903788001034566</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>145</v>
@@ -2524,19 +2524,19 @@
         <v>154928</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>134522</v>
+        <v>132487</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>177612</v>
+        <v>179051</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1834016714034253</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1592446050765743</v>
+        <v>0.1568365354496472</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2102544946922202</v>
+        <v>0.211957480037849</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>270</v>
@@ -2545,19 +2545,19 @@
         <v>292980</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>263439</v>
+        <v>264623</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>328692</v>
+        <v>327491</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1716680982655458</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1543586434087783</v>
+        <v>0.1550526829818184</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1925930604925077</v>
+        <v>0.1918890419046142</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>723866</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>702690</v>
+        <v>697827</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>746797</v>
+        <v>744814</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8398317276749991</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8152636648704635</v>
+        <v>0.8096211998965436</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8664359686158413</v>
+        <v>0.8641355655755888</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>648</v>
@@ -2595,19 +2595,19 @@
         <v>689820</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>667136</v>
+        <v>665697</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>710226</v>
+        <v>712261</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8165983285965747</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7897455053077796</v>
+        <v>0.788042519962151</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8407553949234254</v>
+        <v>0.8431634645503526</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1333</v>
@@ -2616,19 +2616,19 @@
         <v>1413686</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1377974</v>
+        <v>1379175</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1443227</v>
+        <v>1442043</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8283319017344541</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8074069395074923</v>
+        <v>0.8081109580953864</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8456413565912219</v>
+        <v>0.8449473170181817</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>64670</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>50045</v>
+        <v>48765</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>82052</v>
+        <v>82322</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1293370829064579</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1000867653887729</v>
+        <v>0.09752819311635504</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1640997593553529</v>
+        <v>0.164640324036275</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>59</v>
@@ -2741,19 +2741,19 @@
         <v>62504</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>48291</v>
+        <v>48699</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>77198</v>
+        <v>77703</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.142701409437586</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1102524386380701</v>
+        <v>0.1111833148506857</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1762481894417008</v>
+        <v>0.1773997370785248</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>117</v>
@@ -2762,19 +2762,19 @@
         <v>127175</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>105745</v>
+        <v>105467</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>149584</v>
+        <v>150161</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1355775367732053</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1127315016062348</v>
+        <v>0.1124354312900487</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1594671017243145</v>
+        <v>0.1600820183051306</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>435344</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>417962</v>
+        <v>417692</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>449969</v>
+        <v>451249</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8706629170935422</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8359002406446469</v>
+        <v>0.8353596759637246</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8999132346112271</v>
+        <v>0.9024718068836449</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>340</v>
@@ -2812,19 +2812,19 @@
         <v>375504</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>360810</v>
+        <v>360305</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>389717</v>
+        <v>389309</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.857298590562414</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8237518105582992</v>
+        <v>0.8226002629214751</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8897475613619299</v>
+        <v>0.8888166851493143</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>740</v>
@@ -2833,19 +2833,19 @@
         <v>810848</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>788439</v>
+        <v>787862</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>832278</v>
+        <v>832556</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8644224632267947</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8405328982756853</v>
+        <v>0.8399179816948693</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.887268498393765</v>
+        <v>0.8875645687099512</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>552168</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>512303</v>
+        <v>508243</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>597735</v>
+        <v>595985</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1651292491745993</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1532074302179027</v>
+        <v>0.1519933997182971</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1787564803235333</v>
+        <v>0.17823296138826</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>667</v>
@@ -2958,19 +2958,19 @@
         <v>715017</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>669121</v>
+        <v>666615</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>764108</v>
+        <v>764608</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2107290712128174</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1972025075701462</v>
+        <v>0.1964641013565574</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2251970525893765</v>
+        <v>0.2253446219078847</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1174</v>
@@ -2979,19 +2979,19 @@
         <v>1267185</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1198538</v>
+        <v>1200363</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1332632</v>
+        <v>1336830</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1880957064755</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1779059945905575</v>
+        <v>0.1781769025532438</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1978104487557931</v>
+        <v>0.1984335619752011</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2791684</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2746117</v>
+        <v>2747867</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2831549</v>
+        <v>2835609</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8348707508254006</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8212435196764669</v>
+        <v>0.8217670386117401</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8467925697820975</v>
+        <v>0.848006600281703</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2476</v>
@@ -3029,19 +3029,19 @@
         <v>2678046</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2628955</v>
+        <v>2628455</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2723942</v>
+        <v>2726448</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7892709287871825</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7748029474106235</v>
+        <v>0.7746553780921154</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.802797492429854</v>
+        <v>0.8035358986434427</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5103</v>
@@ -3050,19 +3050,19 @@
         <v>5469730</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5404283</v>
+        <v>5400085</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5538377</v>
+        <v>5536552</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8119042935245</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8021895512442071</v>
+        <v>0.8015664380247989</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8220940054094424</v>
+        <v>0.8218230974467562</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>206145</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>180484</v>
+        <v>179960</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>233856</v>
+        <v>232209</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1874951000381071</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1641562427097622</v>
+        <v>0.1636793650847153</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2126991440525854</v>
+        <v>0.2112012658302278</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>265</v>
@@ -3415,19 +3415,19 @@
         <v>289962</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>258543</v>
+        <v>262349</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>320877</v>
+        <v>320836</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2445446520548186</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2180470838472671</v>
+        <v>0.2212562914375219</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2706170580568513</v>
+        <v>0.2705822786283036</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>458</v>
@@ -3436,19 +3436,19 @@
         <v>496107</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>454791</v>
+        <v>454433</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>537053</v>
+        <v>535771</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2170965543219233</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1990167976468325</v>
+        <v>0.1988602263781013</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2350145460299827</v>
+        <v>0.2344536842693489</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>893322</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>865611</v>
+        <v>867258</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>918983</v>
+        <v>919507</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8125048999618929</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7873008559474146</v>
+        <v>0.7887987341697722</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8358437572902379</v>
+        <v>0.8363206349152846</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>856</v>
@@ -3486,19 +3486,19 @@
         <v>895761</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>864846</v>
+        <v>864887</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>927180</v>
+        <v>923374</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7554553479451813</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7293829419431487</v>
+        <v>0.7294177213716967</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7819529161527332</v>
+        <v>0.7787437085624781</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1703</v>
@@ -3507,19 +3507,19 @@
         <v>1789083</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1748137</v>
+        <v>1749419</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1830399</v>
+        <v>1830757</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7829034456780767</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7649854539700175</v>
+        <v>0.7655463157306512</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8009832023531676</v>
+        <v>0.801139773621899</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>137935</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>116318</v>
+        <v>114656</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>160134</v>
+        <v>160941</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1575289046839093</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1328418909321736</v>
+        <v>0.1309432432019318</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1828820513149084</v>
+        <v>0.1838034849394749</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>156</v>
@@ -3632,19 +3632,19 @@
         <v>172854</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>148660</v>
+        <v>150631</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>198067</v>
+        <v>199725</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1785709821629337</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1535770862134883</v>
+        <v>0.1556132329745552</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2046179851144197</v>
+        <v>0.2063314185028311</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>288</v>
@@ -3653,19 +3653,19 @@
         <v>310788</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>280309</v>
+        <v>278539</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>345835</v>
+        <v>345124</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1685770698870586</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1520446448543586</v>
+        <v>0.1510844763788264</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1875872365368906</v>
+        <v>0.1872012492825232</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>737680</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>715481</v>
+        <v>714674</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>759297</v>
+        <v>760959</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8424710953160907</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8171179486850912</v>
+        <v>0.8161965150605249</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8671581090678263</v>
+        <v>0.8690567567980677</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>762</v>
@@ -3703,19 +3703,19 @@
         <v>795129</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>769916</v>
+        <v>768258</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>819323</v>
+        <v>817352</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8214290178370663</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7953820148855802</v>
+        <v>0.7936685814971688</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8464229137865117</v>
+        <v>0.8443867670254445</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1479</v>
@@ -3724,19 +3724,19 @@
         <v>1532810</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1497763</v>
+        <v>1498474</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1563289</v>
+        <v>1565059</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8314229301129413</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8124127634631095</v>
+        <v>0.8127987507174769</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8479553551456418</v>
+        <v>0.8489155236211736</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>126405</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>107128</v>
+        <v>107020</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>148288</v>
+        <v>146956</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1596258582346451</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1352820758075486</v>
+        <v>0.1351452875268062</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1872587526137568</v>
+        <v>0.1855769920135553</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>87</v>
@@ -3849,19 +3849,19 @@
         <v>93884</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>77369</v>
+        <v>75031</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>114968</v>
+        <v>112412</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1308655127699509</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1078459024001431</v>
+        <v>0.1045856839576717</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1602544752740612</v>
+        <v>0.1566913986391386</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>208</v>
@@ -3870,19 +3870,19 @@
         <v>220289</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>195503</v>
+        <v>193215</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>251910</v>
+        <v>248775</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1459552967824236</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1295328124979721</v>
+        <v>0.1280169836522706</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1669058370954395</v>
+        <v>0.1648287330764129</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>665481</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>643598</v>
+        <v>644930</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>684758</v>
+        <v>684866</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8403741417653549</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8127412473862431</v>
+        <v>0.8144230079864446</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8647179241924512</v>
+        <v>0.8648547124731938</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>595</v>
@@ -3920,19 +3920,19 @@
         <v>623523</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>602439</v>
+        <v>604995</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>640038</v>
+        <v>642376</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8691344872300492</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8397455247259387</v>
+        <v>0.8433086013608614</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8921540975998569</v>
+        <v>0.8954143160423282</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1230</v>
@@ -3941,19 +3941,19 @@
         <v>1289004</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1257383</v>
+        <v>1260518</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1313790</v>
+        <v>1316078</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8540447032175764</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8330941629045602</v>
+        <v>0.8351712669235871</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8704671875020272</v>
+        <v>0.8719830163477298</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>80687</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>64024</v>
+        <v>64752</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>99005</v>
+        <v>100100</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1670749707350115</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1325708063731242</v>
+        <v>0.1340786209729777</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2050038632985155</v>
+        <v>0.2072730163560037</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>59</v>
@@ -4066,19 +4066,19 @@
         <v>66647</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50037</v>
+        <v>52813</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>83265</v>
+        <v>83770</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1462316292710096</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.109787808828063</v>
+        <v>0.11587973604475</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1826944733794569</v>
+        <v>0.1838028193765197</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>133</v>
@@ -4087,19 +4087,19 @@
         <v>147334</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>126162</v>
+        <v>124336</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>174300</v>
+        <v>172044</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1569550476045611</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1344006105371474</v>
+        <v>0.1324550172118637</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1856820888315873</v>
+        <v>0.1832788731582617</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>402253</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>383935</v>
+        <v>382840</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>418916</v>
+        <v>418188</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8329250292649885</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7949961367014846</v>
+        <v>0.7927269836439964</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.867429193626876</v>
+        <v>0.8659213790270224</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>366</v>
@@ -4137,19 +4137,19 @@
         <v>389114</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>372496</v>
+        <v>371991</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>405724</v>
+        <v>402948</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8537683707289904</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8173055266205431</v>
+        <v>0.8161971806234803</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.890212191171937</v>
+        <v>0.8841202639552499</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>740</v>
@@ -4158,19 +4158,19 @@
         <v>791367</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>764401</v>
+        <v>766657</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>812539</v>
+        <v>814365</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.843044952395439</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8143179111684126</v>
+        <v>0.8167211268417383</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8655993894628524</v>
+        <v>0.8675449827881364</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>551172</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>505768</v>
+        <v>508725</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>597430</v>
+        <v>596120</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.169596194187594</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1556252229137163</v>
+        <v>0.1565350935554134</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1838297518408833</v>
+        <v>0.1834267138710516</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>567</v>
@@ -4283,19 +4283,19 @@
         <v>623346</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>574327</v>
+        <v>576416</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>672943</v>
+        <v>671865</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1873669893464769</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1726324927554987</v>
+        <v>0.1732604424668941</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.202274719644088</v>
+        <v>0.2019509527534373</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1087</v>
@@ -4304,19 +4304,19 @@
         <v>1174518</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1114912</v>
+        <v>1113203</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1242076</v>
+        <v>1245377</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1785855749975607</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1695223884649687</v>
+        <v>0.1692625261339618</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1888577719213806</v>
+        <v>0.1893596864751146</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2698736</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2652478</v>
+        <v>2653788</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2744140</v>
+        <v>2741183</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.830403805812406</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8161702481591168</v>
+        <v>0.8165732861289485</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8443747770862836</v>
+        <v>0.8434649064445867</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2579</v>
@@ -4354,19 +4354,19 @@
         <v>2703528</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2653931</v>
+        <v>2655009</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2752547</v>
+        <v>2750458</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8126330106535231</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7977252803559118</v>
+        <v>0.7980490472465623</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8273675072445007</v>
+        <v>0.8267395575331059</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5152</v>
@@ -4375,19 +4375,19 @@
         <v>5402264</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5334706</v>
+        <v>5331405</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5461870</v>
+        <v>5463579</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8214144250024392</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8111422280786194</v>
+        <v>0.8106403135248854</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8304776115350314</v>
+        <v>0.8307374738660382</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>102883</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>84256</v>
+        <v>83708</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>124012</v>
+        <v>123718</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2164278598447999</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1772431603552835</v>
+        <v>0.1760904078002152</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2608748582179739</v>
+        <v>0.260256861958731</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>210</v>
@@ -4743,16 +4743,16 @@
         <v>126853</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>164283</v>
+        <v>163916</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2424698657242701</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2130009929644935</v>
+        <v>0.2130007557286636</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2758503475728396</v>
+        <v>0.275235078216905</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>306</v>
@@ -4761,19 +4761,19 @@
         <v>247286</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>222644</v>
+        <v>220356</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>273230</v>
+        <v>273177</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2309101071918842</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2078996586940266</v>
+        <v>0.2057628213212211</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2551362116120549</v>
+        <v>0.2550863237787175</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>372487</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>351358</v>
+        <v>351652</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>391114</v>
+        <v>391662</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7835721401552</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7391251417820263</v>
+        <v>0.7397431380412689</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8227568396447165</v>
+        <v>0.8239095921997845</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>605</v>
@@ -4811,7 +4811,7 @@
         <v>451147</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>431267</v>
+        <v>431634</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>468697</v>
@@ -4820,10 +4820,10 @@
         <v>0.7575301342757299</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7241496524271605</v>
+        <v>0.7247649217830948</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7869990070355066</v>
+        <v>0.7869992442713364</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>946</v>
@@ -4832,19 +4832,19 @@
         <v>823634</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>797690</v>
+        <v>797743</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>848276</v>
+        <v>850564</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7690898928081157</v>
+        <v>0.769089892808116</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7448637883879451</v>
+        <v>0.7449136762212827</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7921003413059732</v>
+        <v>0.794237178678779</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>179291</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>156248</v>
+        <v>152888</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>205011</v>
+        <v>204301</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1888031440440109</v>
+        <v>0.1888031440440108</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1645374967027876</v>
+        <v>0.1609992815226842</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2158879430182248</v>
+        <v>0.2151396835536515</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>322</v>
@@ -4957,19 +4957,19 @@
         <v>204869</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>185109</v>
+        <v>184670</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>227507</v>
+        <v>228634</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1913322133272546</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1728778166107115</v>
+        <v>0.1724680249888633</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2124740208272194</v>
+        <v>0.2135264756642175</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>512</v>
@@ -4978,19 +4978,19 @@
         <v>384160</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>350561</v>
+        <v>350107</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>415867</v>
+        <v>416766</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1901434953037455</v>
+        <v>0.1901434953037454</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1735135481286075</v>
+        <v>0.1732888813103728</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2058371984579392</v>
+        <v>0.20628210004651</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>770327</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>744607</v>
+        <v>745317</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>793370</v>
+        <v>796730</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.811196855955989</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7841120569817751</v>
+        <v>0.7848603164463485</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8354625032972123</v>
+        <v>0.8390007184773159</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1212</v>
@@ -5028,19 +5028,19 @@
         <v>865882</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>843244</v>
+        <v>842117</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>885642</v>
+        <v>886081</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8086677866727454</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7875259791727807</v>
+        <v>0.7864735243357825</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8271221833892887</v>
+        <v>0.8275319750111366</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1918</v>
@@ -5049,19 +5049,19 @@
         <v>1636209</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1604502</v>
+        <v>1603603</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1669808</v>
+        <v>1670262</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8098565046962546</v>
+        <v>0.8098565046962545</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7941628015420608</v>
+        <v>0.7937178999534901</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8264864518713924</v>
+        <v>0.8267111186896273</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>151032</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>127166</v>
+        <v>129343</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>172479</v>
+        <v>173978</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.146309196040522</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1231898166599728</v>
+        <v>0.1252986186185013</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1670855219351561</v>
+        <v>0.1685381803891707</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>244</v>
@@ -5174,19 +5174,19 @@
         <v>151901</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>133690</v>
+        <v>134130</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>171745</v>
+        <v>171239</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1491229044791322</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.131244921586007</v>
+        <v>0.1316770688156429</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1686042895010176</v>
+        <v>0.1681070844034274</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>414</v>
@@ -5195,19 +5195,19 @@
         <v>302933</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>273554</v>
+        <v>275937</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>334354</v>
+        <v>330690</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1477066873633312</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1333819120821676</v>
+        <v>0.1345435942138059</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1630270317599518</v>
+        <v>0.1612408728704421</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>881247</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>859800</v>
+        <v>858301</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>905113</v>
+        <v>902936</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8536908039594779</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8329144780648438</v>
+        <v>0.8314618196108292</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8768101833400272</v>
+        <v>0.8747013813814989</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1223</v>
@@ -5245,19 +5245,19 @@
         <v>866729</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>846885</v>
+        <v>847391</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>884940</v>
+        <v>884500</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8508770955208678</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8313957104989824</v>
+        <v>0.8318929155965726</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.868755078413993</v>
+        <v>0.868322931184357</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2067</v>
@@ -5266,19 +5266,19 @@
         <v>1747976</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1716555</v>
+        <v>1720219</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1777355</v>
+        <v>1774972</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8522933126366687</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8369729682400482</v>
+        <v>0.8387591271295577</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8666180879178322</v>
+        <v>0.8654564057861939</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>144076</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>122343</v>
+        <v>120492</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>169377</v>
+        <v>167950</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1512216612070613</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1284107313898486</v>
+        <v>0.1264686436401217</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1777771909578257</v>
+        <v>0.1762797371367659</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>182</v>
@@ -5391,19 +5391,19 @@
         <v>112165</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>97373</v>
+        <v>96755</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>130857</v>
+        <v>131971</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1278350835020417</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1109765936644558</v>
+        <v>0.1102719825649204</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1491378131906572</v>
+        <v>0.1504078866687799</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>334</v>
@@ -5412,19 +5412,19 @@
         <v>256241</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>228206</v>
+        <v>230147</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>288055</v>
+        <v>286541</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1400096451016225</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1246914721483943</v>
+        <v>0.1257518607753436</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1573929618807593</v>
+        <v>0.1565657570017344</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>808670</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>783369</v>
+        <v>784796</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>830403</v>
+        <v>832254</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8487783387929387</v>
+        <v>0.8487783387929386</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8222228090421745</v>
+        <v>0.8237202628632341</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8715892686101518</v>
+        <v>0.8735313563598779</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1089</v>
@@ -5462,19 +5462,19 @@
         <v>765255</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>746563</v>
+        <v>745449</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>780047</v>
+        <v>780665</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8721649164979582</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8508621868093429</v>
+        <v>0.8495921133312201</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8890234063355442</v>
+        <v>0.8897280174350795</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1860</v>
@@ -5483,19 +5483,19 @@
         <v>1573925</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1542111</v>
+        <v>1543625</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1601960</v>
+        <v>1600019</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8599903548983774</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8426070381192406</v>
+        <v>0.8434342429982661</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8753085278516057</v>
+        <v>0.8742481392246564</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>577282</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>533847</v>
+        <v>538079</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>622769</v>
+        <v>631621</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1692902288591462</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1565529165198243</v>
+        <v>0.157793957315544</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1826295382887075</v>
+        <v>0.1852253954447281</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>958</v>
@@ -5608,19 +5608,19 @@
         <v>613338</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>574938</v>
+        <v>574912</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>652035</v>
+        <v>650648</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1721723196973772</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1613929217364823</v>
+        <v>0.1613854945370131</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.183034888518682</v>
+        <v>0.1826455561024679</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1566</v>
@@ -5629,19 +5629,19 @@
         <v>1190620</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1133969</v>
+        <v>1129125</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1251082</v>
+        <v>1247119</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1707627596721528</v>
+        <v>0.1707627596721527</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1626376310436385</v>
+        <v>0.1619429220396901</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.179434355661158</v>
+        <v>0.1788659859608735</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2832730</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2787243</v>
+        <v>2778391</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2876165</v>
+        <v>2871933</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8307097711408538</v>
+        <v>0.8307097711408536</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8173704617112925</v>
+        <v>0.8147746045552715</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8434470834801756</v>
+        <v>0.842206042684456</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4129</v>
@@ -5679,19 +5679,19 @@
         <v>2949013</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2910316</v>
+        <v>2911703</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2987413</v>
+        <v>2987439</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8278276803026228</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8169651114813179</v>
+        <v>0.8173544438975316</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8386070782635177</v>
+        <v>0.838614505462987</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6791</v>
@@ -5700,19 +5700,19 @@
         <v>5781744</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5721282</v>
+        <v>5725245</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5838395</v>
+        <v>5843239</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8292372403278474</v>
+        <v>0.8292372403278472</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.820565644338842</v>
+        <v>0.8211340140391264</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8373623689563615</v>
+        <v>0.8380570779603099</v>
       </c>
     </row>
     <row r="18">
